--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.978786579989</v>
+        <v>56.05275600000001</v>
       </c>
       <c r="H2">
-        <v>49.978786579989</v>
+        <v>168.158268</v>
       </c>
       <c r="I2">
-        <v>0.06114348593702938</v>
+        <v>0.06617112780234141</v>
       </c>
       <c r="J2">
-        <v>0.06114348593702938</v>
+        <v>0.06617112780234141</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N2">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O2">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P2">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q2">
-        <v>200.9944297204319</v>
+        <v>233.541061288956</v>
       </c>
       <c r="R2">
-        <v>200.9944297204319</v>
+        <v>2101.869551600604</v>
       </c>
       <c r="S2">
-        <v>0.04500784305367609</v>
+        <v>0.04715986060378802</v>
       </c>
       <c r="T2">
-        <v>0.04500784305367609</v>
+        <v>0.04715986060378802</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.978786579989</v>
+        <v>56.05275600000001</v>
       </c>
       <c r="H3">
-        <v>49.978786579989</v>
+        <v>168.158268</v>
       </c>
       <c r="I3">
-        <v>0.06114348593702938</v>
+        <v>0.06617112780234141</v>
       </c>
       <c r="J3">
-        <v>0.06114348593702938</v>
+        <v>0.06617112780234141</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N3">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O3">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P3">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q3">
-        <v>32.20139697752517</v>
+        <v>37.307929655016</v>
       </c>
       <c r="R3">
-        <v>32.20139697752517</v>
+        <v>335.771366895144</v>
       </c>
       <c r="S3">
-        <v>0.007210724313551682</v>
+        <v>0.007533736261348773</v>
       </c>
       <c r="T3">
-        <v>0.007210724313551682</v>
+        <v>0.007533736261348773</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.978786579989</v>
+        <v>56.05275600000001</v>
       </c>
       <c r="H4">
-        <v>49.978786579989</v>
+        <v>168.158268</v>
       </c>
       <c r="I4">
-        <v>0.06114348593702938</v>
+        <v>0.06617112780234141</v>
       </c>
       <c r="J4">
-        <v>0.06114348593702938</v>
+        <v>0.06617112780234141</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.797470039517346</v>
+        <v>1.01401</v>
       </c>
       <c r="N4">
-        <v>0.797470039517346</v>
+        <v>3.04203</v>
       </c>
       <c r="O4">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="P4">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="Q4">
-        <v>39.85658490897283</v>
+        <v>56.83805511156002</v>
       </c>
       <c r="R4">
-        <v>39.85658490897283</v>
+        <v>511.5424960040401</v>
       </c>
       <c r="S4">
-        <v>0.008924918569801595</v>
+        <v>0.01147753093720461</v>
       </c>
       <c r="T4">
-        <v>0.008924918569801595</v>
+        <v>0.01147753093720461</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>236.660911791585</v>
+        <v>238.00471</v>
       </c>
       <c r="H5">
-        <v>236.660911791585</v>
+        <v>714.01413</v>
       </c>
       <c r="I5">
-        <v>0.2895283003482737</v>
+        <v>0.2809681665424124</v>
       </c>
       <c r="J5">
-        <v>0.2895283003482737</v>
+        <v>0.2809681665424124</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N5">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O5">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P5">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q5">
-        <v>951.7542993273191</v>
+        <v>991.6349619842099</v>
       </c>
       <c r="R5">
-        <v>951.7542993273191</v>
+        <v>8924.71465785789</v>
       </c>
       <c r="S5">
-        <v>0.213122364581783</v>
+        <v>0.2002447292091221</v>
       </c>
       <c r="T5">
-        <v>0.213122364581783</v>
+        <v>0.2002447292091221</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>236.660911791585</v>
+        <v>238.00471</v>
       </c>
       <c r="H6">
-        <v>236.660911791585</v>
+        <v>714.01413</v>
       </c>
       <c r="I6">
-        <v>0.2895283003482737</v>
+        <v>0.2809681665424124</v>
       </c>
       <c r="J6">
-        <v>0.2895283003482737</v>
+        <v>0.2809681665424124</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N6">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O6">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P6">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q6">
-        <v>152.4809322344611</v>
+        <v>158.41260291006</v>
       </c>
       <c r="R6">
-        <v>152.4809322344611</v>
+        <v>1425.71342619054</v>
       </c>
       <c r="S6">
-        <v>0.03414441821214915</v>
+        <v>0.03198887694476251</v>
       </c>
       <c r="T6">
-        <v>0.03414441821214915</v>
+        <v>0.03198887694476251</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>236.660911791585</v>
+        <v>238.00471</v>
       </c>
       <c r="H7">
-        <v>236.660911791585</v>
+        <v>714.01413</v>
       </c>
       <c r="I7">
-        <v>0.2895283003482737</v>
+        <v>0.2809681665424124</v>
       </c>
       <c r="J7">
-        <v>0.2895283003482737</v>
+        <v>0.2809681665424124</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.797470039517346</v>
+        <v>1.01401</v>
       </c>
       <c r="N7">
-        <v>0.797470039517346</v>
+        <v>3.04203</v>
       </c>
       <c r="O7">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="P7">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="Q7">
-        <v>188.7299866786464</v>
+        <v>241.3391559871</v>
       </c>
       <c r="R7">
-        <v>188.7299866786464</v>
+        <v>2172.0524038839</v>
       </c>
       <c r="S7">
-        <v>0.04226151755434154</v>
+        <v>0.04873456038852777</v>
       </c>
       <c r="T7">
-        <v>0.04226151755434154</v>
+        <v>0.04873456038852776</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>113.521843186418</v>
+        <v>126.0396663333333</v>
       </c>
       <c r="H8">
-        <v>113.521843186418</v>
+        <v>378.118999</v>
       </c>
       <c r="I8">
-        <v>0.1388813474153764</v>
+        <v>0.1487917359336884</v>
       </c>
       <c r="J8">
-        <v>0.1388813474153764</v>
+        <v>0.1487917359336884</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N8">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O8">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P8">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q8">
-        <v>456.5388576521019</v>
+        <v>525.138093834183</v>
       </c>
       <c r="R8">
-        <v>456.5388576521019</v>
+        <v>4726.242844507648</v>
       </c>
       <c r="S8">
-        <v>0.1022308393406268</v>
+        <v>0.1060431907188998</v>
       </c>
       <c r="T8">
-        <v>0.1022308393406268</v>
+        <v>0.1060431907188998</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>113.521843186418</v>
+        <v>126.0396663333333</v>
       </c>
       <c r="H9">
-        <v>113.521843186418</v>
+        <v>378.118999</v>
       </c>
       <c r="I9">
-        <v>0.1388813474153764</v>
+        <v>0.1487917359336884</v>
       </c>
       <c r="J9">
-        <v>0.1388813474153764</v>
+        <v>0.1487917359336884</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N9">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O9">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P9">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q9">
-        <v>73.14227071550907</v>
+        <v>83.89023735613799</v>
       </c>
       <c r="R9">
-        <v>73.14227071550907</v>
+        <v>755.012136205242</v>
       </c>
       <c r="S9">
-        <v>0.01637844315154411</v>
+        <v>0.01694028398217803</v>
       </c>
       <c r="T9">
-        <v>0.01637844315154411</v>
+        <v>0.01694028398217803</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>113.521843186418</v>
+        <v>126.0396663333333</v>
       </c>
       <c r="H10">
-        <v>113.521843186418</v>
+        <v>378.118999</v>
       </c>
       <c r="I10">
-        <v>0.1388813474153764</v>
+        <v>0.1487917359336884</v>
       </c>
       <c r="J10">
-        <v>0.1388813474153764</v>
+        <v>0.1487917359336884</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.797470039517346</v>
+        <v>1.01401</v>
       </c>
       <c r="N10">
-        <v>0.797470039517346</v>
+        <v>3.04203</v>
       </c>
       <c r="O10">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="P10">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="Q10">
-        <v>90.53026877195471</v>
+        <v>127.8054820586634</v>
       </c>
       <c r="R10">
-        <v>90.53026877195471</v>
+        <v>1150.24933852797</v>
       </c>
       <c r="S10">
-        <v>0.02027206492320546</v>
+        <v>0.02580826123261058</v>
       </c>
       <c r="T10">
-        <v>0.02027206492320546</v>
+        <v>0.02580826123261058</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>137.708251668738</v>
+        <v>145.0922953333333</v>
       </c>
       <c r="H11">
-        <v>137.708251668738</v>
+        <v>435.276886</v>
       </c>
       <c r="I11">
-        <v>0.1684707277925721</v>
+        <v>0.1712836531648339</v>
       </c>
       <c r="J11">
-        <v>0.1684707277925721</v>
+        <v>0.1712836531648339</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N11">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O11">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P11">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q11">
-        <v>553.8067929611947</v>
+        <v>604.5199389838619</v>
       </c>
       <c r="R11">
-        <v>553.8067929611947</v>
+        <v>5440.679450854757</v>
       </c>
       <c r="S11">
-        <v>0.1240116417869234</v>
+        <v>0.122073077416633</v>
       </c>
       <c r="T11">
-        <v>0.1240116417869234</v>
+        <v>0.122073077416633</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>137.708251668738</v>
+        <v>145.0922953333333</v>
       </c>
       <c r="H12">
-        <v>137.708251668738</v>
+        <v>435.276886</v>
       </c>
       <c r="I12">
-        <v>0.1684707277925721</v>
+        <v>0.1712836531648339</v>
       </c>
       <c r="J12">
-        <v>0.1684707277925721</v>
+        <v>0.1712836531648339</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N12">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O12">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P12">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q12">
-        <v>88.72560505183341</v>
+        <v>96.57140048173198</v>
       </c>
       <c r="R12">
-        <v>88.72560505183341</v>
+        <v>869.1426043355879</v>
       </c>
       <c r="S12">
-        <v>0.01986795411479719</v>
+        <v>0.01950104088717883</v>
       </c>
       <c r="T12">
-        <v>0.01986795411479719</v>
+        <v>0.01950104088717883</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>137.708251668738</v>
+        <v>145.0922953333333</v>
       </c>
       <c r="H13">
-        <v>137.708251668738</v>
+        <v>435.276886</v>
       </c>
       <c r="I13">
-        <v>0.1684707277925721</v>
+        <v>0.1712836531648339</v>
       </c>
       <c r="J13">
-        <v>0.1684707277925721</v>
+        <v>0.1712836531648339</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.797470039517346</v>
+        <v>1.01401</v>
       </c>
       <c r="N13">
-        <v>0.797470039517346</v>
+        <v>3.04203</v>
       </c>
       <c r="O13">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="P13">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="Q13">
-        <v>109.8182049001331</v>
+        <v>147.1250383909534</v>
       </c>
       <c r="R13">
-        <v>109.8182049001331</v>
+        <v>1324.12534551858</v>
       </c>
       <c r="S13">
-        <v>0.02459113189085156</v>
+        <v>0.02970953486102203</v>
       </c>
       <c r="T13">
-        <v>0.02459113189085156</v>
+        <v>0.02970953486102202</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>149.382253859161</v>
+        <v>151.033905</v>
       </c>
       <c r="H14">
-        <v>149.382253859161</v>
+        <v>453.101715</v>
       </c>
       <c r="I14">
-        <v>0.1827525709024801</v>
+        <v>0.1782978134070997</v>
       </c>
       <c r="J14">
-        <v>0.1827525709024801</v>
+        <v>0.1782978134070997</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N14">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O14">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P14">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q14">
-        <v>600.7548998157662</v>
+        <v>629.2753645211549</v>
       </c>
       <c r="R14">
-        <v>600.7548998157662</v>
+        <v>5663.478280690394</v>
       </c>
       <c r="S14">
-        <v>0.1345245352433084</v>
+        <v>0.1270720373900217</v>
       </c>
       <c r="T14">
-        <v>0.1345245352433084</v>
+        <v>0.1270720373900217</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>149.382253859161</v>
+        <v>151.033905</v>
       </c>
       <c r="H15">
-        <v>149.382253859161</v>
+        <v>453.101715</v>
       </c>
       <c r="I15">
-        <v>0.1827525709024801</v>
+        <v>0.1782978134070997</v>
       </c>
       <c r="J15">
-        <v>0.1827525709024801</v>
+        <v>0.1782978134070997</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N15">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O15">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P15">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q15">
-        <v>96.24717979532316</v>
+        <v>100.52605269333</v>
       </c>
       <c r="R15">
-        <v>96.24717979532316</v>
+        <v>904.7344742399698</v>
       </c>
       <c r="S15">
-        <v>0.02155222892799649</v>
+        <v>0.02029961928708029</v>
       </c>
       <c r="T15">
-        <v>0.02155222892799649</v>
+        <v>0.02029961928708029</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>149.382253859161</v>
+        <v>151.033905</v>
       </c>
       <c r="H16">
-        <v>149.382253859161</v>
+        <v>453.101715</v>
       </c>
       <c r="I16">
-        <v>0.1827525709024801</v>
+        <v>0.1782978134070997</v>
       </c>
       <c r="J16">
-        <v>0.1827525709024801</v>
+        <v>0.1782978134070997</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.797470039517346</v>
+        <v>1.01401</v>
       </c>
       <c r="N16">
-        <v>0.797470039517346</v>
+        <v>3.04203</v>
       </c>
       <c r="O16">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="P16">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="Q16">
-        <v>119.1278718882553</v>
+        <v>153.14989000905</v>
       </c>
       <c r="R16">
-        <v>119.1278718882553</v>
+        <v>1378.34901008145</v>
       </c>
       <c r="S16">
-        <v>0.02667580673117526</v>
+        <v>0.03092615672999776</v>
       </c>
       <c r="T16">
-        <v>0.02667580673117526</v>
+        <v>0.03092615672999775</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>130.149607629401</v>
+        <v>130.8644813333333</v>
       </c>
       <c r="H17">
-        <v>130.149607629401</v>
+        <v>392.593444</v>
       </c>
       <c r="I17">
-        <v>0.1592235676042682</v>
+        <v>0.1544875031496243</v>
       </c>
       <c r="J17">
-        <v>0.1592235676042682</v>
+        <v>0.1544875031496243</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N17">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O17">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P17">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q17">
-        <v>523.4089891706847</v>
+        <v>545.2404491157479</v>
       </c>
       <c r="R17">
-        <v>523.4089891706847</v>
+        <v>4907.164042041732</v>
       </c>
       <c r="S17">
-        <v>0.1172047885617733</v>
+        <v>0.1101025380030737</v>
       </c>
       <c r="T17">
-        <v>0.1172047885617733</v>
+        <v>0.1101025380030737</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>130.149607629401</v>
+        <v>130.8644813333333</v>
       </c>
       <c r="H18">
-        <v>130.149607629401</v>
+        <v>392.593444</v>
       </c>
       <c r="I18">
-        <v>0.1592235676042682</v>
+        <v>0.1544875031496243</v>
       </c>
       <c r="J18">
-        <v>0.1592235676042682</v>
+        <v>0.1544875031496243</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N18">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O18">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P18">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q18">
-        <v>83.85556089954201</v>
+        <v>87.10156667272797</v>
       </c>
       <c r="R18">
-        <v>83.85556089954201</v>
+        <v>783.9141000545519</v>
       </c>
       <c r="S18">
-        <v>0.01877742547091546</v>
+        <v>0.01758876028046743</v>
       </c>
       <c r="T18">
-        <v>0.01877742547091546</v>
+        <v>0.01758876028046743</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>130.149607629401</v>
+        <v>130.8644813333333</v>
       </c>
       <c r="H19">
-        <v>130.149607629401</v>
+        <v>392.593444</v>
       </c>
       <c r="I19">
-        <v>0.1592235676042682</v>
+        <v>0.1544875031496243</v>
       </c>
       <c r="J19">
-        <v>0.1592235676042682</v>
+        <v>0.1544875031496243</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.797470039517346</v>
+        <v>1.01401</v>
       </c>
       <c r="N19">
-        <v>0.797470039517346</v>
+        <v>3.04203</v>
       </c>
       <c r="O19">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="P19">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="Q19">
-        <v>103.7904127393855</v>
+        <v>132.6978927168133</v>
       </c>
       <c r="R19">
-        <v>103.7904127393855</v>
+        <v>1194.28103445132</v>
       </c>
       <c r="S19">
-        <v>0.02324135357157941</v>
+        <v>0.0267962048660831</v>
       </c>
       <c r="T19">
-        <v>0.02324135357157941</v>
+        <v>0.02679620486608309</v>
       </c>
     </row>
   </sheetData>
